--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1542.900024414062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1579.800048828125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1484.949951171875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1510.599975585938</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30004</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1515</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1548.800048828125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24056</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1577.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22106</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1609.949951171875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1649.800048828125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1553.800048828125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1570.349975585938</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24632</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1555</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1576.400024414062</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15465</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1618.900024414062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1598.550048828125</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15432</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1594.199951171875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1566.650024414062</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14954</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1566.650024414062</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1566.650024414062</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1488.349975585938</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1494.599975585938</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39284</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1503.650024414062</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1419.900024414062</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1450.650024414062</v>
+      </c>
+      <c r="F20" t="n">
+        <v>46339</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1479.949951171875</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1510.050048828125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1378.150024414062</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1393.699951171875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>55839</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1324.050048828125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1342.550048828125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>58505</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1359.300048828125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1275.449951171875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1275.449951171875</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54372</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1318.800048828125</v>
+      </c>
+      <c r="F24" t="n">
+        <v>62553</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1384.699951171875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1306.599975585938</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1384.699951171875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11920</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1453.900024414062</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1426</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1453.900024414062</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33089</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1295"/>
+  <dimension ref="A1:Q1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58944,6 +58944,231 @@
       <c r="P1295" t="inlineStr"/>
       <c r="Q1295" t="inlineStr"/>
     </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1458.300048828125</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1502.449951171875</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>10376</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1296" t="inlineStr"/>
+      <c r="O1296" t="inlineStr"/>
+      <c r="P1296" t="inlineStr"/>
+      <c r="Q1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1504</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>1353.5</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1389.550048828125</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>12709</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1297" t="inlineStr"/>
+      <c r="O1297" t="inlineStr"/>
+      <c r="P1297" t="inlineStr"/>
+      <c r="Q1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>1403.400024414062</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>1473.550048828125</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>1395.849975585938</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>20340</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1298" t="inlineStr"/>
+      <c r="O1298" t="inlineStr"/>
+      <c r="P1298" t="inlineStr"/>
+      <c r="Q1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1324.349975585938</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>1256.300048828125</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1280.199951171875</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>50322</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1299" t="inlineStr"/>
+      <c r="O1299" t="inlineStr"/>
+      <c r="P1299" t="inlineStr"/>
+      <c r="Q1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>1272.199951171875</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>1311.050048828125</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>1213.599975585938</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>23641</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1300" t="inlineStr"/>
+      <c r="O1300" t="inlineStr"/>
+      <c r="P1300" t="inlineStr"/>
+      <c r="Q1300" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1300"/>
+  <dimension ref="A1:Q1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59169,6 +59169,231 @@
       <c r="P1300" t="inlineStr"/>
       <c r="Q1300" t="inlineStr"/>
     </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>1212.949951171875</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>1212.949951171875</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>1152.949951171875</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1152.949951171875</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>16342</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1301" t="inlineStr"/>
+      <c r="O1301" t="inlineStr"/>
+      <c r="P1301" t="inlineStr"/>
+      <c r="Q1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1122.25</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>1148</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>1095.349975585938</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1095.349975585938</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>10287</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1302" t="inlineStr"/>
+      <c r="O1302" t="inlineStr"/>
+      <c r="P1302" t="inlineStr"/>
+      <c r="Q1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>1040.599975585938</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>1040.599975585938</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1041.099975585938</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>33317</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1303" t="inlineStr"/>
+      <c r="O1303" t="inlineStr"/>
+      <c r="P1303" t="inlineStr"/>
+      <c r="Q1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>1030.650024414062</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>1093.150024414062</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>1046.650024414062</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>34077</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1304" t="inlineStr"/>
+      <c r="O1304" t="inlineStr"/>
+      <c r="P1304" t="inlineStr"/>
+      <c r="Q1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1063.75</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>1077</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1035.599975585938</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>22410</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1305" t="inlineStr"/>
+      <c r="O1305" t="inlineStr"/>
+      <c r="P1305" t="inlineStr"/>
+      <c r="Q1305" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1305"/>
+  <dimension ref="A1:Q1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59394,6 +59394,411 @@
       <c r="P1305" t="inlineStr"/>
       <c r="Q1305" t="inlineStr"/>
     </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1035.599975585938</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>1056.949951171875</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1039.550048828125</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>8921</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1306" t="inlineStr"/>
+      <c r="O1306" t="inlineStr"/>
+      <c r="P1306" t="inlineStr"/>
+      <c r="Q1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>1091.5</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1051.199951171875</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>1059.150024414062</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>5626</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1307" t="inlineStr"/>
+      <c r="O1307" t="inlineStr"/>
+      <c r="P1307" t="inlineStr"/>
+      <c r="Q1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1084.099975585938</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1084.099975585938</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>1041</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>7564</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1308" t="inlineStr"/>
+      <c r="O1308" t="inlineStr"/>
+      <c r="P1308" t="inlineStr"/>
+      <c r="Q1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>1007.150024414062</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>1017.75</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>988.9500122070312</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>988.9500122070312</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>10827</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1309" t="inlineStr"/>
+      <c r="O1309" t="inlineStr"/>
+      <c r="P1309" t="inlineStr"/>
+      <c r="Q1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>980</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>15238</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1310" t="inlineStr"/>
+      <c r="O1310" t="inlineStr"/>
+      <c r="P1310" t="inlineStr"/>
+      <c r="Q1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>895.25</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>958</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>893.0999755859375</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>902.4500122070312</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>26590</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1311" t="inlineStr"/>
+      <c r="O1311" t="inlineStr"/>
+      <c r="P1311" t="inlineStr"/>
+      <c r="Q1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>914.5499877929688</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>947.5499877929688</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>905.1500244140625</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>947.5499877929688</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>15063</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1312" t="inlineStr"/>
+      <c r="O1312" t="inlineStr"/>
+      <c r="P1312" t="inlineStr"/>
+      <c r="Q1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>974</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>994.9000244140625</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>968</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>993.2000122070312</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>56898</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1313" t="inlineStr"/>
+      <c r="O1313" t="inlineStr"/>
+      <c r="P1313" t="inlineStr"/>
+      <c r="Q1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>970</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>984.0499877929688</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>29729</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1314" t="inlineStr"/>
+      <c r="O1314" t="inlineStr"/>
+      <c r="P1314" t="inlineStr"/>
+      <c r="Q1314" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1314"/>
+  <dimension ref="A1:Q1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59799,6 +59799,411 @@
       <c r="P1314" t="inlineStr"/>
       <c r="Q1314" t="inlineStr"/>
     </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>982.0499877929688</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>1023.599975585938</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>934.8499755859375</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>936.2999877929688</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>26408</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1315" t="inlineStr"/>
+      <c r="O1315" t="inlineStr"/>
+      <c r="P1315" t="inlineStr"/>
+      <c r="Q1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>926.9500122070312</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>927.9500122070312</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>915.5499877929688</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>15121</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1316" t="inlineStr"/>
+      <c r="O1316" t="inlineStr"/>
+      <c r="P1316" t="inlineStr"/>
+      <c r="Q1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>905.7999877929688</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>935</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>883.0999755859375</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>887.75</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>33231</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1317" t="inlineStr"/>
+      <c r="O1317" t="inlineStr"/>
+      <c r="P1317" t="inlineStr"/>
+      <c r="Q1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>903.9000244140625</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>918.7999877929688</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>843.4000244140625</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>843.4000244140625</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>46846</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1318" t="inlineStr"/>
+      <c r="O1318" t="inlineStr"/>
+      <c r="P1318" t="inlineStr"/>
+      <c r="Q1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>827</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>840</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>801.25</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>801.4500122070312</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>28100</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1319" t="inlineStr"/>
+      <c r="O1319" t="inlineStr"/>
+      <c r="P1319" t="inlineStr"/>
+      <c r="Q1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>770.1500244140625</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>794</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>761.4000244140625</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>767.9000244140625</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>33868</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1320" t="inlineStr"/>
+      <c r="O1320" t="inlineStr"/>
+      <c r="P1320" t="inlineStr"/>
+      <c r="Q1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>753.0499877929688</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>806.25</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>753.0499877929688</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>806.25</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>7225</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1321" t="inlineStr"/>
+      <c r="O1321" t="inlineStr"/>
+      <c r="P1321" t="inlineStr"/>
+      <c r="Q1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>846.5499877929688</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>846.5499877929688</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>830</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>846.5499877929688</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>8485</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1322" t="inlineStr"/>
+      <c r="O1322" t="inlineStr"/>
+      <c r="P1322" t="inlineStr"/>
+      <c r="Q1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>885.0499877929688</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>888.8499755859375</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>871.4000244140625</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>888.8499755859375</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>4726</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1323" t="inlineStr"/>
+      <c r="O1323" t="inlineStr"/>
+      <c r="P1323" t="inlineStr"/>
+      <c r="Q1323" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1323"/>
+  <dimension ref="A1:Q1332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60204,6 +60204,411 @@
       <c r="P1323" t="inlineStr"/>
       <c r="Q1323" t="inlineStr"/>
     </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>933.25</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>933.25</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>914.9500122070312</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>933.25</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>10512</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1324" t="inlineStr"/>
+      <c r="O1324" t="inlineStr"/>
+      <c r="P1324" t="inlineStr"/>
+      <c r="Q1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>979.9000244140625</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>979.9000244140625</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>958.8499755859375</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>979.9000244140625</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>5292</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1325" t="inlineStr"/>
+      <c r="O1325" t="inlineStr"/>
+      <c r="P1325" t="inlineStr"/>
+      <c r="Q1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>1028.849975585938</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>1028.849975585938</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>3495</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1326" t="inlineStr"/>
+      <c r="O1326" t="inlineStr"/>
+      <c r="P1326" t="inlineStr"/>
+      <c r="Q1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>1080.25</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>1080.25</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>977.4500122070312</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>995.6500244140625</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>41364</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1327" t="inlineStr"/>
+      <c r="O1327" t="inlineStr"/>
+      <c r="P1327" t="inlineStr"/>
+      <c r="Q1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>989.9500122070312</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>1045.400024414062</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>989.9500122070312</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>1045.400024414062</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>18949</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1328" t="inlineStr"/>
+      <c r="O1328" t="inlineStr"/>
+      <c r="P1328" t="inlineStr"/>
+      <c r="Q1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>1061.949951171875</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>1097.650024414062</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>1029.650024414062</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>1097.650024414062</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>26048</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1329" t="inlineStr"/>
+      <c r="O1329" t="inlineStr"/>
+      <c r="P1329" t="inlineStr"/>
+      <c r="Q1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>1152.5</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>1146.5</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>64192</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1330" t="inlineStr"/>
+      <c r="O1330" t="inlineStr"/>
+      <c r="P1330" t="inlineStr"/>
+      <c r="Q1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>1153.849975585938</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>1203.800048828125</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>1153.800048828125</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>1203.800048828125</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>12712</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1331" t="inlineStr"/>
+      <c r="O1331" t="inlineStr"/>
+      <c r="P1331" t="inlineStr"/>
+      <c r="Q1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>1263.949951171875</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>1263.949951171875</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>1263.449951171875</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>103453</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1332" t="inlineStr"/>
+      <c r="O1332" t="inlineStr"/>
+      <c r="P1332" t="inlineStr"/>
+      <c r="Q1332" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1332"/>
+  <dimension ref="A1:Q1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60609,6 +60609,186 @@
       <c r="P1332" t="inlineStr"/>
       <c r="Q1332" t="inlineStr"/>
     </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>1200.300048828125</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>1200.300048828125</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>1200.300048828125</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>1200.300048828125</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>2481</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1333" t="inlineStr"/>
+      <c r="O1333" t="inlineStr"/>
+      <c r="P1333" t="inlineStr"/>
+      <c r="Q1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>1209.349975585938</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>1260.300048828125</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>1173.449951171875</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>44046</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1334" t="inlineStr"/>
+      <c r="O1334" t="inlineStr"/>
+      <c r="P1334" t="inlineStr"/>
+      <c r="Q1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>1159.900024414062</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>1114.800048828125</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>1157.349975585938</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>28150</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1335" t="inlineStr"/>
+      <c r="O1335" t="inlineStr"/>
+      <c r="P1335" t="inlineStr"/>
+      <c r="Q1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1215.199951171875</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>1215.199951171875</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1215.199951171875</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>1215.199951171875</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>403</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1336" t="inlineStr"/>
+      <c r="O1336" t="inlineStr"/>
+      <c r="P1336" t="inlineStr"/>
+      <c r="Q1336" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1336"/>
+  <dimension ref="A1:Q1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60789,6 +60789,141 @@
       <c r="P1336" t="inlineStr"/>
       <c r="Q1336" t="inlineStr"/>
     </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>377</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1337" t="inlineStr"/>
+      <c r="O1337" t="inlineStr"/>
+      <c r="P1337" t="inlineStr"/>
+      <c r="Q1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1339.699951171875</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>1339.699951171875</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>1339.699951171875</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>1339.699951171875</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1338" t="inlineStr"/>
+      <c r="O1338" t="inlineStr"/>
+      <c r="P1338" t="inlineStr"/>
+      <c r="Q1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>1406.650024414062</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>1406.650024414062</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>1398.949951171875</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>17357</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1339" t="inlineStr"/>
+      <c r="O1339" t="inlineStr"/>
+      <c r="P1339" t="inlineStr"/>
+      <c r="Q1339" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1339"/>
+  <dimension ref="A1:Q1348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60924,6 +60924,411 @@
       <c r="P1339" t="inlineStr"/>
       <c r="Q1339" t="inlineStr"/>
     </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1468.849975585938</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1410.050048828125</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>1468.849975585938</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>22161</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1340" t="inlineStr"/>
+      <c r="O1340" t="inlineStr"/>
+      <c r="P1340" t="inlineStr"/>
+      <c r="Q1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1542.25</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>1542.25</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>35160</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1341" t="inlineStr"/>
+      <c r="O1341" t="inlineStr"/>
+      <c r="P1341" t="inlineStr"/>
+      <c r="Q1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1584.949951171875</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>1465.150024414062</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>1513.25</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>64263</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1342" t="inlineStr"/>
+      <c r="O1342" t="inlineStr"/>
+      <c r="P1342" t="inlineStr"/>
+      <c r="Q1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1504.949951171875</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>1577</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>1453.400024414062</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>1495.349975585938</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>28688</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1343" t="inlineStr"/>
+      <c r="O1343" t="inlineStr"/>
+      <c r="P1343" t="inlineStr"/>
+      <c r="Q1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>18252</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1344" t="inlineStr"/>
+      <c r="O1344" t="inlineStr"/>
+      <c r="P1344" t="inlineStr"/>
+      <c r="Q1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>1439.849975585938</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>1439.849975585938</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>1349.599975585938</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>1354.300048828125</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>12515</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1345" t="inlineStr"/>
+      <c r="O1345" t="inlineStr"/>
+      <c r="P1345" t="inlineStr"/>
+      <c r="Q1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>1353.199951171875</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>1353.199951171875</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>1384.650024414062</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>15824</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1346" t="inlineStr"/>
+      <c r="O1346" t="inlineStr"/>
+      <c r="P1346" t="inlineStr"/>
+      <c r="Q1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>1417.699951171875</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>1417.699951171875</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>1317.349975585938</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>4244</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1347" t="inlineStr"/>
+      <c r="O1347" t="inlineStr"/>
+      <c r="P1347" t="inlineStr"/>
+      <c r="Q1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>1325.25</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>1279.550048828125</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>1359.599975585938</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>7741</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1348" t="inlineStr"/>
+      <c r="O1348" t="inlineStr"/>
+      <c r="P1348" t="inlineStr"/>
+      <c r="Q1348" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/NIBE.BO.xlsx
+++ b/stock_historical_data/1d/NIBE.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1348"/>
+  <dimension ref="A1:Q1358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61329,6 +61329,456 @@
       <c r="P1348" t="inlineStr"/>
       <c r="Q1348" t="inlineStr"/>
     </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>1359.650024414062</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>1398.5</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>1322.349975585938</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>1355.300048828125</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>9932</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1349" t="inlineStr"/>
+      <c r="O1349" t="inlineStr"/>
+      <c r="P1349" t="inlineStr"/>
+      <c r="Q1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>1361.050048828125</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>1294.650024414062</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>1299.449951171875</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>4647</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1350" t="inlineStr"/>
+      <c r="O1350" t="inlineStr"/>
+      <c r="P1350" t="inlineStr"/>
+      <c r="Q1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>1318.25</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>11856</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1351" t="inlineStr"/>
+      <c r="O1351" t="inlineStr"/>
+      <c r="P1351" t="inlineStr"/>
+      <c r="Q1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>1311.050048828125</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>1344.300048828125</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>7771</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1352" t="inlineStr"/>
+      <c r="O1352" t="inlineStr"/>
+      <c r="P1352" t="inlineStr"/>
+      <c r="Q1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>1245.25</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>1335.900024414062</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>1222.75</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>1335.900024414062</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>5352</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1353" t="inlineStr"/>
+      <c r="O1353" t="inlineStr"/>
+      <c r="P1353" t="inlineStr"/>
+      <c r="Q1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1402.650024414062</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>1402.650024414062</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1402.650024414062</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>1402.650024414062</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1354" t="inlineStr"/>
+      <c r="O1354" t="inlineStr"/>
+      <c r="P1354" t="inlineStr"/>
+      <c r="Q1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1472.75</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>1472.75</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1406</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>1444.599975585938</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>36055</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1355" t="inlineStr"/>
+      <c r="O1355" t="inlineStr"/>
+      <c r="P1355" t="inlineStr"/>
+      <c r="Q1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1459.300048828125</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1516.800048828125</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>1420.050048828125</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>1516.800048828125</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>20750</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1356" t="inlineStr"/>
+      <c r="O1356" t="inlineStr"/>
+      <c r="P1356" t="inlineStr"/>
+      <c r="Q1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>1592.599975585938</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1468.599975585938</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>1513.949951171875</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>44103</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1357" t="inlineStr"/>
+      <c r="O1357" t="inlineStr"/>
+      <c r="P1357" t="inlineStr"/>
+      <c r="Q1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1514.849975585938</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1494.5</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>1518.25</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>23256</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1358" t="inlineStr"/>
+      <c r="O1358" t="inlineStr"/>
+      <c r="P1358" t="inlineStr"/>
+      <c r="Q1358" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
